--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H2">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>352.418196969792</v>
+        <v>2.62004425956</v>
       </c>
       <c r="R2">
-        <v>3171.763772728128</v>
+        <v>23.58039833604</v>
       </c>
       <c r="S2">
-        <v>0.3079685212442754</v>
+        <v>0.005453265770943355</v>
       </c>
       <c r="T2">
-        <v>0.3079685212442753</v>
+        <v>0.005453265770943357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H3">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>354.0691973232493</v>
+        <v>213.58296563562</v>
       </c>
       <c r="R3">
-        <v>3186.622775909244</v>
+        <v>1922.24669072058</v>
       </c>
       <c r="S3">
-        <v>0.309411284818347</v>
+        <v>0.4445438932977784</v>
       </c>
       <c r="T3">
-        <v>0.309411284818347</v>
+        <v>0.4445438932977785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H4">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>17.00232558527233</v>
+        <v>16.431421104945</v>
       </c>
       <c r="R4">
-        <v>153.020930267451</v>
+        <v>147.882789944505</v>
       </c>
       <c r="S4">
-        <v>0.0148578623726937</v>
+        <v>0.03419976817284785</v>
       </c>
       <c r="T4">
-        <v>0.0148578623726937</v>
+        <v>0.03419976817284786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>173.519147035584</v>
+        <v>2.138549174216</v>
       </c>
       <c r="R5">
-        <v>1561.672323320256</v>
+        <v>19.246942567944</v>
       </c>
       <c r="S5">
-        <v>0.15163358640274</v>
+        <v>0.004451099239518105</v>
       </c>
       <c r="T5">
-        <v>0.1516335864027399</v>
+        <v>0.004451099239518106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
-        <v>174.3320453919986</v>
+        <v>174.3320453919987</v>
       </c>
       <c r="R6">
         <v>1568.988408527988</v>
       </c>
       <c r="S6">
-        <v>0.1523439558073266</v>
+        <v>0.3628484413749495</v>
       </c>
       <c r="T6">
-        <v>0.1523439558073266</v>
+        <v>0.3628484413749496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>8.371386774419665</v>
+        <v>13.411758945277</v>
       </c>
       <c r="R7">
-        <v>75.34248096977699</v>
+        <v>120.705830507493</v>
       </c>
       <c r="S7">
-        <v>0.007315523511128161</v>
+        <v>0.0279147520953348</v>
       </c>
       <c r="T7">
-        <v>0.007315523511128161</v>
+        <v>0.02791475209533481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H8">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>31.47676553664</v>
+        <v>0.6525195084026666</v>
       </c>
       <c r="R8">
-        <v>283.29088982976</v>
+        <v>5.872675575623999</v>
       </c>
       <c r="S8">
-        <v>0.02750667536246067</v>
+        <v>0.001358130606787011</v>
       </c>
       <c r="T8">
-        <v>0.02750667536246067</v>
+        <v>0.001358130606787011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H9">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>31.62422713616444</v>
+        <v>53.19263261726088</v>
       </c>
       <c r="R9">
-        <v>284.61804422548</v>
+        <v>478.7336935553479</v>
       </c>
       <c r="S9">
-        <v>0.02763553797834243</v>
+        <v>0.1107132299997053</v>
       </c>
       <c r="T9">
-        <v>0.02763553797834243</v>
+        <v>0.1107132299997053</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H10">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>1.518588485574444</v>
+        <v>4.092229657050332</v>
       </c>
       <c r="R10">
-        <v>13.66729637017</v>
+        <v>36.830066913453</v>
       </c>
       <c r="S10">
-        <v>0.00132705250268627</v>
+        <v>0.008517419442135498</v>
       </c>
       <c r="T10">
-        <v>0.00132705250268627</v>
+        <v>0.0085174194421355</v>
       </c>
     </row>
   </sheetData>
